--- a/backend/data/synthetic/taxpayer_invoice_relationship.xlsx
+++ b/backend/data/synthetic/taxpayer_invoice_relationship.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INVE03987BA</t>
+          <t>INVE9357431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INV4487703C</t>
+          <t>INV11AF3837</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INV4559F40D</t>
+          <t>INV11C5AF3C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INVDCB78972</t>
+          <t>INV3099F2D7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INVEDA6CD0F</t>
+          <t>INV9F03D5DE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INV9CE96394</t>
+          <t>INV5E11EF55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INVDB54ABB9</t>
+          <t>INV1844C15B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INVAE9EC4A1</t>
+          <t>INVB80B0267</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INVF8D249ED</t>
+          <t>INV890B321E</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INV7FC59A4C</t>
+          <t>INVB93C2490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INVDE6CC234</t>
+          <t>INVF9E9E382</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INV52D9DCFB</t>
+          <t>INV4B30B4A8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INV102F07D6</t>
+          <t>INV4A553EDB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INVDDBEAD7F</t>
+          <t>INV1FAC72AD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INV30C7516F</t>
+          <t>INVB9F923A8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INV7D9F2BC7</t>
+          <t>INVDF1B080B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INV666DA123</t>
+          <t>INV7192BD02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INV8D193FCC</t>
+          <t>INV541E8EA6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INV86743A80</t>
+          <t>INVA7B6BA21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INVA87A3D29</t>
+          <t>INV9D08F39E</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INV4EC40460</t>
+          <t>INV6D380779</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INVFDFB9C39</t>
+          <t>INVBCDFE370</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INV0805DFB0</t>
+          <t>INV4528EB7D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INVE1715D00</t>
+          <t>INV88299BA4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INVFC7D02D4</t>
+          <t>INVA2458986</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INVB09C88D1</t>
+          <t>INV1445159D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INV889A3747</t>
+          <t>INVE5FEB54C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INVF133AFCE</t>
+          <t>INVAC4D2AA4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INV41BC42F4</t>
+          <t>INVDAF36048</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INVF64CDACD</t>
+          <t>INVFC4C8D51</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INVD27EA318</t>
+          <t>INVC3FD257E</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INV783F5BA1</t>
+          <t>INVDA9972CC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INVDA914089</t>
+          <t>INV5C7A8307</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INVBAB49E7D</t>
+          <t>INV3091356C</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INV46EEBD61</t>
+          <t>INV1A152A22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INVF8088C96</t>
+          <t>INV676E33F1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INVB05FFC69</t>
+          <t>INV5330B940</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INVF10A4924</t>
+          <t>INVC69B9B49</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INVC8E436F7</t>
+          <t>INV24F450B0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INV769591C9</t>
+          <t>INVA37465BF</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INV073253C1</t>
+          <t>INV24D3DAEE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INV6804693E</t>
+          <t>INV8570CD01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INV759617F9</t>
+          <t>INV2A11C449</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INV3A9A051F</t>
+          <t>INV784AC7C5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INV971DB56E</t>
+          <t>INV50B9A5F1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INVC39C0517</t>
+          <t>INV303D389E</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INV7FD587BC</t>
+          <t>INVFCC07BF9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INVFE219C5F</t>
+          <t>INVBAD57774</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INVF132B3A7</t>
+          <t>INVCA8C845F</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INV3259B395</t>
+          <t>INVEA0F2FC8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INV74C3702D</t>
+          <t>INVE83331F4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INVD1366A2B</t>
+          <t>INV0B9A4474</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INV9EFA837F</t>
+          <t>INVBA2BFD17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INV5A6CB3C9</t>
+          <t>INV2F882CBD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INVB8A982F4</t>
+          <t>INVF1D7AA9C</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INVCA700BC6</t>
+          <t>INVD12B6A3B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INV94B0A9C1</t>
+          <t>INVE2614DA5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INVA2848AD1</t>
+          <t>INVB4E920BE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INV56F80ECA</t>
+          <t>INVF25FDDA0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INV506AAD9E</t>
+          <t>INV93086158</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INV719ED5D4</t>
+          <t>INV6FD0D027</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INV610135E7</t>
+          <t>INVEA02BCFE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INV3F15719B</t>
+          <t>INV43784547</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INV14284552</t>
+          <t>INV6C521D8C</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INVE79FC21F</t>
+          <t>INVB24C6C8B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INVFB72CCB0</t>
+          <t>INV4C187A88</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INVD2B5BAC9</t>
+          <t>INV9C7D3547</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INV534AC115</t>
+          <t>INVA69D3968</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INVD92A0FE8</t>
+          <t>INVB71DDFA7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INV60436851</t>
+          <t>INVCD4319B9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INVF39E1BDE</t>
+          <t>INV492CAB81</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INVCBDA80AB</t>
+          <t>INV0948FD7A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INVE96F2685</t>
+          <t>INV58B82432</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INV90AD5A7A</t>
+          <t>INVC5E43E31</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INV4F9B3385</t>
+          <t>INV5283935F</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INVB153E2BB</t>
+          <t>INVFD208E10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INV9D89B168</t>
+          <t>INVA8522907</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INVB5CB83DB</t>
+          <t>INV9906F040</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>INV6516A4DB</t>
+          <t>INV01035E50</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>INV9E4B94A0</t>
+          <t>INVA7027326</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>INVDA31F1C8</t>
+          <t>INV00DFD398</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INVEDC7415B</t>
+          <t>INV4B04172E</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INVA433EF6B</t>
+          <t>INV1836119D</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>INV046B99EA</t>
+          <t>INV9CFFB547</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>INV0E531393</t>
+          <t>INV2BE8B7B3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>INV53A8BD63</t>
+          <t>INV7EB5DF42</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INV2D2EB8C1</t>
+          <t>INVC8FC9EB8</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INVFC5C6FF2</t>
+          <t>INVBCA166CC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INVC231E1B6</t>
+          <t>INV6C86F249</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INV697ED9E3</t>
+          <t>INV5787AFD4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INVC706BA96</t>
+          <t>INV6A5E5EC0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INV43890D4B</t>
+          <t>INV0CBAAA04</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INV3D5C77E3</t>
+          <t>INV3339A6DA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INV4577B0A8</t>
+          <t>INV0FE242A0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INV830146CF</t>
+          <t>INVA6EDA405</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INV01853ADC</t>
+          <t>INVA67A286A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INV83E0FBF0</t>
+          <t>INV4964501A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INV4FEC06E1</t>
+          <t>INVD40B70F6</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INV2E455F0A</t>
+          <t>INVA4A67860</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INV0BA359AD</t>
+          <t>INV4D05E18D</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INV9F821279</t>
+          <t>INVAF1C6981</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INV43676608</t>
+          <t>INV520A0C59</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INVECBB36A5</t>
+          <t>INV6B942C2C</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INV0D63C45C</t>
+          <t>INV8C7350CD</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INV4A39B957</t>
+          <t>INV1BEBD399</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INVEE32E681</t>
+          <t>INVE3D66F9D</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INVFF3DA349</t>
+          <t>INV6C964EA2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INVD6FE1E77</t>
+          <t>INV0B31AF4D</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INVA1D40D74</t>
+          <t>INVBE343CDC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INVDB6D18A6</t>
+          <t>INVD4FC0F90</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INV8456FE2E</t>
+          <t>INV22960A68</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INV8209D7EC</t>
+          <t>INVC4E1BFF2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INVB4FE31DC</t>
+          <t>INVD4A3BA0E</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INVED858657</t>
+          <t>INV087CBE69</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INV07E8D301</t>
+          <t>INVE7B234D5</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INVDD85016B</t>
+          <t>INV4D3B72DA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INVD2FF1874</t>
+          <t>INVEAB66A3E</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INV1C728342</t>
+          <t>INVE0946EE5</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INVFF03897A</t>
+          <t>INVEE8A6048</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INV61711DAF</t>
+          <t>INVC43ABF73</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INV85D6D193</t>
+          <t>INVD569E577</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INV0B8DCEDE</t>
+          <t>INV1DDDD124</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INV91BB44B9</t>
+          <t>INV48778D5E</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INVC0065DC6</t>
+          <t>INV88F17C92</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INV879A9295</t>
+          <t>INV59DE13BF</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INVC86DE889</t>
+          <t>INV7883334D</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INVF5F4FF14</t>
+          <t>INVDF3A219D</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INVD395B8C7</t>
+          <t>INV866C9D1E</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INVC46B6573</t>
+          <t>INV12D38CC6</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INV059BE927</t>
+          <t>INV5E5AAC0A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INVC3F13752</t>
+          <t>INVC04BFE73</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INV329096C1</t>
+          <t>INV69F0A31E</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INV10396DFD</t>
+          <t>INV4B83C716</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INVE9C303B1</t>
+          <t>INV36280C21</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>INV50CB53C4</t>
+          <t>INVE525A301</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>INVDB382E93</t>
+          <t>INV5719F0D2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>INVD5A9CC14</t>
+          <t>INVE0765244</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>INVE4580CA6</t>
+          <t>INV30461B3C</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INVC93A03C5</t>
+          <t>INVECCE5EE2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>INV60B81899</t>
+          <t>INV4534A3F1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>INV8050FAEF</t>
+          <t>INV9F8A82BF</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>INVA8AE13AB</t>
+          <t>INV2A80BE18</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>INV6940FF52</t>
+          <t>INVB5810932</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>INV57EC50C6</t>
+          <t>INV1A73BA63</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INV321DAF79</t>
+          <t>INVC09ACF9F</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>INV688F24E1</t>
+          <t>INV96A58AB4</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>INVF5971C9B</t>
+          <t>INV47A0949C</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INVB712A5D3</t>
+          <t>INVBFB21DA7</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INVB969F909</t>
+          <t>INVB0B3A7D2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>INV14EB523E</t>
+          <t>INVA1FC7B0D</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>INV791F086B</t>
+          <t>INVD77DB8D3</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>INVB5E1E942</t>
+          <t>INVE9E47CE0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INVACC04CB4</t>
+          <t>INV085F93ED</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>INV0D18C17E</t>
+          <t>INV8DF75BE5</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>INV792CD2C5</t>
+          <t>INVDC89B747</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INV9EFCCE8C</t>
+          <t>INV1E94459D</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>INV3412BED8</t>
+          <t>INV52DB2B91</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INV0B1B9600</t>
+          <t>INVF9A4E15A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INV3ACB51E2</t>
+          <t>INVAD400CAB</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>INV0910CE13</t>
+          <t>INV256CDB79</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>INVDFAA3FA2</t>
+          <t>INVC906DB60</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INV4F29FF60</t>
+          <t>INV1C9ED50E</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INVD6C16709</t>
+          <t>INV2E4D6F50</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INV22F41196</t>
+          <t>INVC2711B39</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INVAE01AF45</t>
+          <t>INVD0B0D41D</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INV20708692</t>
+          <t>INVFA33C008</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>INV2F2E2DEF</t>
+          <t>INVE441DD57</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INV4CBBC7FB</t>
+          <t>INVCB97F0A3</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>INV4F164E46</t>
+          <t>INVD70A4E41</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INV05A4B20A</t>
+          <t>INV8052B713</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INV814030AC</t>
+          <t>INV37AE7FCB</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>INV73F7B1FF</t>
+          <t>INV0E61038F</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>INV63977702</t>
+          <t>INV548D6C22</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>INV3E693CDB</t>
+          <t>INV713B261B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>INV87237886</t>
+          <t>INV47F7EDAB</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>INV7C733DE0</t>
+          <t>INV411C6FA3</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INV29A7DC04</t>
+          <t>INV416E679C</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INV8AFB3521</t>
+          <t>INV707A8450</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INV4CDBF97D</t>
+          <t>INV8A846167</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INV89A54EE4</t>
+          <t>INV0CA2777C</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INV638758AC</t>
+          <t>INVE942BE2C</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INV3343DC1B</t>
+          <t>INV5F8D6C5F</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>INV167FEEF0</t>
+          <t>INV37ED6BB6</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INVD947DF1B</t>
+          <t>INV2B6CF1CE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>INVFD770B7C</t>
+          <t>INV434DDFA1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>INVCFC1A1E9</t>
+          <t>INV62328F60</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>INVB4B2541D</t>
+          <t>INV9D55E9DA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>INV2CC9CC71</t>
+          <t>INV4F80CEB4</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>INV8DBCC6DF</t>
+          <t>INV25A962AD</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>INV210FC655</t>
+          <t>INV4EDE81D3</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>INV9D92CE4A</t>
+          <t>INVBB3377CA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>INV71E6165B</t>
+          <t>INVED29D8BC</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INV3A5D82CB</t>
+          <t>INVDA7C8873</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INVF8CEA453</t>
+          <t>INVBFF36052</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>INV24051AE0</t>
+          <t>INV07B910B9</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>INV7FF32C38</t>
+          <t>INV1D274937</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>INV2EEDE408</t>
+          <t>INVDF8377EE</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>INV7180026D</t>
+          <t>INV977E4EA7</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>INVD2C4EB9E</t>
+          <t>INVD9BA6F73</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INVE8CF8FD3</t>
+          <t>INVE87754E6</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>INV76BE08CB</t>
+          <t>INVB23D3078</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>INV4E18BE97</t>
+          <t>INVCFAFFBED</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>INV9E8F1F01</t>
+          <t>INV1B3EBDA8</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INV6C8FC433</t>
+          <t>INV5A2E6483</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INVBB37E32A</t>
+          <t>INV9D81460E</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>INV9F5CABE7</t>
+          <t>INV12F98495</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INV9C55C292</t>
+          <t>INV4EDF65D3</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>INV976465CE</t>
+          <t>INV2BC1853A</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>INV7E3E97F0</t>
+          <t>INVFB8241CA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>INVE4C53615</t>
+          <t>INV88430339</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>INV14501191</t>
+          <t>INV486B07A8</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>INV6DF5E708</t>
+          <t>INVA250BF2B</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INVA7A69821</t>
+          <t>INVA1976A69</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>INV4E80767D</t>
+          <t>INV854AA505</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>INVE54EC8FD</t>
+          <t>INV223C65D2</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>INVF6948E7D</t>
+          <t>INV83EE4FAE</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>INV7B0DED02</t>
+          <t>INV5D64E7A1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>INVCA322178</t>
+          <t>INV883057B9</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>INV85556821</t>
+          <t>INVE3211EAB</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>INV909167DC</t>
+          <t>INV98770A66</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>INV9D7F017E</t>
+          <t>INV74C626A5</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>INV982AA58D</t>
+          <t>INV1DB24C5A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>INV6D922109</t>
+          <t>INV29557F75</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>INV449A051B</t>
+          <t>INV8A50E323</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>INV7A3E9497</t>
+          <t>INV48BF15BA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>INV216833E9</t>
+          <t>INVBDECE6B5</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>INV82F01178</t>
+          <t>INV1BE20B20</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>INV4791FB2D</t>
+          <t>INV4744ABF9</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>INV53088D3E</t>
+          <t>INVC9136D87</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>INV9333F32C</t>
+          <t>INV93ED30D0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>INV7452D0A5</t>
+          <t>INV8FF3C8C0</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>INV0FDEA184</t>
+          <t>INV4A2049F6</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>INV544A782C</t>
+          <t>INV2C0E57FB</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>INV8353BABE</t>
+          <t>INVE29B0BED</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>INV3AF02CD1</t>
+          <t>INVF162B20D</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>INV9A931C65</t>
+          <t>INV7EBF1B68</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>INVF0EF113E</t>
+          <t>INV23E3C321</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>INVA117E82F</t>
+          <t>INVCEF9CBD1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>INVC363B306</t>
+          <t>INVCCF757B5</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INV14152AF0</t>
+          <t>INVEB1F9745</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>INV28F6AA8B</t>
+          <t>INV8A7B6B2C</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>INV99B917E6</t>
+          <t>INVB2B8D2BE</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>INVCC1AEFBF</t>
+          <t>INV8B9AE27D</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>INV4C14B113</t>
+          <t>INV24042139</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>INVF0A1F106</t>
+          <t>INVC5190F7E</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>INV63D5D9A0</t>
+          <t>INVE8E45E97</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>INVA19B1317</t>
+          <t>INVA3E01DD3</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>INV8E842674</t>
+          <t>INV94028003</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>INVE5663CF1</t>
+          <t>INVB550AB90</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>INV746E25E5</t>
+          <t>INV2F221338</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>INV0AD2E243</t>
+          <t>INVECC907AB</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>INV2D7E7AE7</t>
+          <t>INV7045A992</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>INV7A641BAB</t>
+          <t>INVDF82085D</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>INV8C83986B</t>
+          <t>INV3B4D51D8</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>INV1795A735</t>
+          <t>INVA2DBD06A</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>INV6D63EBE3</t>
+          <t>INVEA9A6176</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>INV0E0638BF</t>
+          <t>INVC144ACE8</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>INV5298E3D3</t>
+          <t>INV5BBDC99D</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>INVAEBE2EF3</t>
+          <t>INVB8FD3D21</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>INVFC36B12A</t>
+          <t>INVEA1A3A4B</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>INV0C337D70</t>
+          <t>INVA2194C5C</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>INVFEDFE03F</t>
+          <t>INV113F7F13</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>INV8FF98ED3</t>
+          <t>INV8D0FE195</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>INV06A3BA2F</t>
+          <t>INVB4F69F67</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>INV7DBF897A</t>
+          <t>INV40051434</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>INV2C720DA4</t>
+          <t>INV97CD4496</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>INVCA9E7143</t>
+          <t>INV6C4630CE</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>INV919DDCDD</t>
+          <t>INVED66C568</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>INV8B96FC7C</t>
+          <t>INV4A19261B</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>INVFE38839D</t>
+          <t>INVEEF59BBE</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>INV0BF07B94</t>
+          <t>INV137D8E64</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>INVD6387214</t>
+          <t>INVFFE19C57</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>INV8E359611</t>
+          <t>INV1E29E21D</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>INV0F82077D</t>
+          <t>INV27C63B19</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>INVE82DAE13</t>
+          <t>INV222C2E44</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>INVAE6BA747</t>
+          <t>INV366F1E76</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>INV18A71236</t>
+          <t>INVCA0924BD</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>INV4FFBEFFA</t>
+          <t>INVEA4F429F</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>INV3B7380F6</t>
+          <t>INVDAE338BD</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>INV9EB840C2</t>
+          <t>INV0DF51F88</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>INVDC74B87D</t>
+          <t>INV9101A4BC</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>INV230189D8</t>
+          <t>INVA2EBE9FA</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>INV4AC8DBC6</t>
+          <t>INVBF8106BC</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>INV6D1573F4</t>
+          <t>INV5A814B1E</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>INV31A39055</t>
+          <t>INVFF29BDE2</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>INVA2F0AFA4</t>
+          <t>INVABE70170</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>INVFD6BC8F0</t>
+          <t>INVA26925AA</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>INV5F25FAB6</t>
+          <t>INVC27DD3D4</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>INVD60B2EF5</t>
+          <t>INVE3A0C559</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>INVA2C7442C</t>
+          <t>INV5614FF3C</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>INVA7A8164E</t>
+          <t>INV8F1BBD15</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>INV1A210A64</t>
+          <t>INV86502562</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>INV54A1EB46</t>
+          <t>INV31BE277F</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>INV1D6018C5</t>
+          <t>INVF8F9BE00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>INVC201A504</t>
+          <t>INV693F3D76</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>INV073596C7</t>
+          <t>INV02CB96F2</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>INV0010B036</t>
+          <t>INVDA31467B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>INV9F1462E9</t>
+          <t>INV3F57B201</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>INV5A59C56C</t>
+          <t>INV90051B53</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>INV3E6CBE1F</t>
+          <t>INV622A1975</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>INV7F8BC4F7</t>
+          <t>INV338D16DE</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>INVF6ED7DB7</t>
+          <t>INVFBE7F6CA</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>INV3CB9B0D6</t>
+          <t>INVCF79A6F1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>INV0ECB56E5</t>
+          <t>INV2A4F046C</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>INVF30F37E1</t>
+          <t>INVB7ED57C5</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>INVF27EE85D</t>
+          <t>INV4F5A5AAF</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>INVC82B1ED0</t>
+          <t>INVBCB0B71B</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>INVAA1E000D</t>
+          <t>INVF171E4C4</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>INV499A5CBB</t>
+          <t>INV098A63CD</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>INV4CF1D942</t>
+          <t>INV6CA447E2</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>INV4FD9BEB0</t>
+          <t>INVCE9CAE98</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>INVE8E2ECC2</t>
+          <t>INVD3E55BA4</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>INV6EDFF6F1</t>
+          <t>INVD0C83583</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>INV39EA5A64</t>
+          <t>INV3771A4B0</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>INV9B1F87B8</t>
+          <t>INV01255A97</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>INV597AD1E7</t>
+          <t>INVCFECB226</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>INVC7C3F6F1</t>
+          <t>INVBD2201B9</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>INVC9D4183F</t>
+          <t>INV60EAA87E</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>INVDD3A5B36</t>
+          <t>INVBF34DE2E</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>INVE6AAD01D</t>
+          <t>INV96A1DBB6</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>INVD5D9BB27</t>
+          <t>INV99A0A1FC</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>INVAC6ACD1D</t>
+          <t>INV6916BE1A</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>INV2B91985D</t>
+          <t>INV0751494B</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>INV7AB0BC18</t>
+          <t>INVEEB03F47</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>INV8952803A</t>
+          <t>INVDD61AC68</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>INVFEACF3CC</t>
+          <t>INV9C62CFD0</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>INV6AC234D0</t>
+          <t>INVA2854DD2</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>INVB62CF01B</t>
+          <t>INV346DC8BC</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>INV4BD8F3DC</t>
+          <t>INV55046DFE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>INVFCFBBD55</t>
+          <t>INV04078BD1</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>INV2B48F765</t>
+          <t>INV486998D1</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>INVE9E002C5</t>
+          <t>INV723C789D</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>INV4A9C1F60</t>
+          <t>INVFA4C600F</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>INV888E7434</t>
+          <t>INVA0BA28B6</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>INV74CBC10D</t>
+          <t>INV0EA2F6C1</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>INVF6E6B039</t>
+          <t>INV9448FDB2</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>INV1417B611</t>
+          <t>INV98BE84D1</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>INV27B3CAC3</t>
+          <t>INVC3F6C14D</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>INVC3FC5E86</t>
+          <t>INVB9FB0C3A</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>INV5C769FC9</t>
+          <t>INVA332580C</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>INVC0438052</t>
+          <t>INVBFF43A25</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>INVADFFEA8F</t>
+          <t>INVC89C41B8</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>INV1AEDF10F</t>
+          <t>INVD0E058B5</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>INVF6DBC497</t>
+          <t>INVB389A4BC</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>INV0B7C14D6</t>
+          <t>INVFE23D378</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>INVD73DE87B</t>
+          <t>INV218A0D80</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>INV1C701665</t>
+          <t>INVA1375A59</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>INV3DDDDFA6</t>
+          <t>INVA2F2DF6E</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>INV483407ED</t>
+          <t>INV1A1EA909</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>INV438B7070</t>
+          <t>INV46648042</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>INV4A93D71B</t>
+          <t>INV8BF6BA53</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>INVC48F82E7</t>
+          <t>INV44E79195</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>INV3889FEF3</t>
+          <t>INVB6FBED5C</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>INV5AC32607</t>
+          <t>INVF8A0B8A8</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>INV376B1C23</t>
+          <t>INV67C244C5</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>INV4809CDCC</t>
+          <t>INV6A9DA779</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>INV677D922F</t>
+          <t>INV603BB146</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>INVE61D653F</t>
+          <t>INV2EC2238A</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>INV2C7B7233</t>
+          <t>INV255EA0C2</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>INV5DF01E5E</t>
+          <t>INVB1B858BF</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>INVE5F388BD</t>
+          <t>INVDA2ADFBB</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>INV042FA59C</t>
+          <t>INV0C725EFA</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>INVB763C44B</t>
+          <t>INV1FCCC9F9</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>INV3A9DFB8D</t>
+          <t>INV1AE0C1C6</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>INVEC67C99A</t>
+          <t>INV39FBF519</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>INV21D953AA</t>
+          <t>INVB849C914</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>INV90AD4283</t>
+          <t>INVCC1BBC20</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>INVEB1A8B1E</t>
+          <t>INVC43FDD31</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>INVC07A5A50</t>
+          <t>INVD8704539</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>INV948408CC</t>
+          <t>INV3D128575</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>INV9F0BD25B</t>
+          <t>INV0124D368</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>INV8D6E61AA</t>
+          <t>INVF4362B5A</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>INV4A57298E</t>
+          <t>INV595A7885</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>INVE8302241</t>
+          <t>INV4EB7777F</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>INVD421FEAA</t>
+          <t>INVF8EEF1B8</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>INVDDA019DD</t>
+          <t>INV0C8C568B</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>INVBB77B62D</t>
+          <t>INV9E32F0CA</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>INVFFC295DD</t>
+          <t>INVDDFA9714</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>INVB8AEF237</t>
+          <t>INV45413601</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>INV9EB8F0A1</t>
+          <t>INV4495456C</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>INVC3C06B94</t>
+          <t>INVF081DEA1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>INV4263BF90</t>
+          <t>INV40FDF3A9</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>INV6D014F38</t>
+          <t>INV6E302237</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>INV16CF4C83</t>
+          <t>INVBC540193</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>INV69171FB0</t>
+          <t>INVDBA21D3F</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>INV7A401BCD</t>
+          <t>INV0BF57055</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>INVE21C2075</t>
+          <t>INV95A73E21</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>INV5CB36C62</t>
+          <t>INV80B4F8D6</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>INV3B643BDD</t>
+          <t>INV9A14ACF0</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>INVE3FEA44A</t>
+          <t>INV1B5799C8</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>INV6291F787</t>
+          <t>INV933B9A84</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>INV0CB875C1</t>
+          <t>INVE05D7C96</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>INV273FBCB5</t>
+          <t>INVC2F78AAD</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>INVF8E65F08</t>
+          <t>INV71A90E60</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>INV7F5EA05A</t>
+          <t>INV07625063</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>INV9BBD4659</t>
+          <t>INVE7FE514F</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>INVE1919C96</t>
+          <t>INV652B7993</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>INVD5842686</t>
+          <t>INV6A6EE053</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>INV18C4D190</t>
+          <t>INV1024DCEB</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>INVEBB8170C</t>
+          <t>INVBCEC1D25</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>INVFCD8EAD9</t>
+          <t>INV6840FC98</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>INV98972037</t>
+          <t>INV12756FC7</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>INVE03137D2</t>
+          <t>INVFC0FF898</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>INV695441EC</t>
+          <t>INV9D43419C</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>INVDC663D84</t>
+          <t>INV73D3EC52</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>INV8F8F3746</t>
+          <t>INV04ADD66E</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>INV3CAAB524</t>
+          <t>INV6469A7DA</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>INV7975B054</t>
+          <t>INV440EBF6D</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>INV9CC17D74</t>
+          <t>INVFDAD94C3</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>INV0DA3E906</t>
+          <t>INVA49796C6</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>INV5812936D</t>
+          <t>INVE31EC5DC</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>INVE4A73C4D</t>
+          <t>INV01FFB95A</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>INV2A54676E</t>
+          <t>INVA891BD8D</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>INV05557EFE</t>
+          <t>INV6B66C940</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>INVACD0644C</t>
+          <t>INVB3DA6FD4</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>INV6686215C</t>
+          <t>INVC811A792</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>INVB856FE68</t>
+          <t>INVCD3BC468</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>INV2A1E7D64</t>
+          <t>INV022261C0</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>INVEEB623C0</t>
+          <t>INV1F01E01D</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>INV54C54BFE</t>
+          <t>INV03D7E9FF</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>INV83A6C958</t>
+          <t>INVB63B6FA1</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>INVB02F2E4F</t>
+          <t>INV6AF5F78D</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>INV68C348DD</t>
+          <t>INV29CF5B2A</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>INV415C57E7</t>
+          <t>INVA82EABCF</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>INVD01BBB40</t>
+          <t>INV98F3EBB3</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>INV3A3427B7</t>
+          <t>INV923EC3D6</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>INVF854CFA5</t>
+          <t>INV98A0B4DC</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>INVE2884358</t>
+          <t>INV97B50B5F</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>INVF46BF5E8</t>
+          <t>INVDAACC047</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>INV122DDEB7</t>
+          <t>INVA8F12909</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>INVCDC9CDA8</t>
+          <t>INV80687B03</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>INVA878F22F</t>
+          <t>INV2A4FB5D2</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>INVE9C3F206</t>
+          <t>INV1555828D</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>INV88EA150C</t>
+          <t>INVBE25E355</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>INVCEAA9D9A</t>
+          <t>INVDB6F2DA7</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>INVF8A1E5AC</t>
+          <t>INV96D4A853</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>INV1CBC7D27</t>
+          <t>INVA5C7B0C0</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>INV1A82F121</t>
+          <t>INVEC939AA8</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>INVB5FEB59F</t>
+          <t>INV1E34E218</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>INV4810A1DC</t>
+          <t>INV4BE81BD9</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>INVC552F64C</t>
+          <t>INV7B1544E8</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>INV023991B4</t>
+          <t>INV2A97176B</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>INVD4D4A04A</t>
+          <t>INV2FF53FE8</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>INVDB061C3B</t>
+          <t>INVC22CCB88</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>INVCB8EE218</t>
+          <t>INVB64334E0</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>INVA680C030</t>
+          <t>INVDD215DB9</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>INVF0083FE0</t>
+          <t>INV70C9825A</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>INV99907A36</t>
+          <t>INV9FFFD5E8</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>INVAE0FF2B7</t>
+          <t>INVA1563A45</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>INV8F04D876</t>
+          <t>INV254D6B3E</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>INV41F06DEF</t>
+          <t>INV2DA285DE</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>INV0E57FF31</t>
+          <t>INV2D39A75B</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>INV1215EC82</t>
+          <t>INVCF81F0EA</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>INV2751383F</t>
+          <t>INV71DD67B0</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>INVE79B7870</t>
+          <t>INVEB6A49FE</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>INV9743D3E7</t>
+          <t>INV103158B3</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>INV6CFE9D6C</t>
+          <t>INVA47B73A1</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>INVE52FC162</t>
+          <t>INV191FB8F7</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>INV3178F73A</t>
+          <t>INVDC35A760</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>INVC3CB6EC8</t>
+          <t>INV5FB6BBCC</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>INV005F5F4C</t>
+          <t>INV492E9DE7</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>INVE1549730</t>
+          <t>INV52276BAC</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>INV4988465E</t>
+          <t>INV075A2A32</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>INVE2F3357A</t>
+          <t>INV3B532279</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>INVA24265BE</t>
+          <t>INVCB654126</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>INV373A7E53</t>
+          <t>INVFAE7A427</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>INV926024C5</t>
+          <t>INV6DB6F32C</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>INVA6750E85</t>
+          <t>INVE004BA8C</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>INVAFA41B55</t>
+          <t>INVD7CF5261</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>INVC5620F97</t>
+          <t>INV608E68D4</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>INV218286B0</t>
+          <t>INVFC2C0225</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>INVD5C5B446</t>
+          <t>INVA4FAA779</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>INV32852839</t>
+          <t>INVF49240FD</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>INV0743F061</t>
+          <t>INVA32DA9C0</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>INV67C81FF6</t>
+          <t>INV2F2F1D80</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>INVBD8B24F1</t>
+          <t>INVD95CD14D</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>INV095A12CB</t>
+          <t>INVFD6EA62B</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>INVC0919004</t>
+          <t>INV2848800B</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>INV274E484E</t>
+          <t>INVA096CE39</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>INV79F701D1</t>
+          <t>INVA556A3B0</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>INV5E962BC5</t>
+          <t>INV0D330FC0</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>INV7B94B283</t>
+          <t>INVBB718280</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>INV708420A1</t>
+          <t>INV323D0A8B</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>INVAAB56460</t>
+          <t>INVC0C92AF6</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>INVFF5A154C</t>
+          <t>INV5BAFE18D</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>INV57798F71</t>
+          <t>INV7EB6C0A3</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>INV5979BE22</t>
+          <t>INV0364E753</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>INV31014650</t>
+          <t>INVFA7D1B34</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>INVE4E802E3</t>
+          <t>INVAA16ECC7</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>INVE75C95DE</t>
+          <t>INVE57D8772</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>INV2305837F</t>
+          <t>INVE1A50380</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>INVD572A705</t>
+          <t>INVF172CFF9</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>INV868BE5D7</t>
+          <t>INV58DCC1CB</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>INVAC2482EB</t>
+          <t>INVDFF01919</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>INV0AAE689A</t>
+          <t>INV5B6D3C6E</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>INV33DBC2B6</t>
+          <t>INVF7811A84</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>INVE41B950F</t>
+          <t>INV0B490712</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>INVD53621EF</t>
+          <t>INVC2A94C99</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>INVD08CB75B</t>
+          <t>INVDC7B088E</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>INV6BD96950</t>
+          <t>INVF7C57A34</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>INV13A9D5EF</t>
+          <t>INVD001E055</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>INV71F7754D</t>
+          <t>INVB66F0038</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>INVC3C28FED</t>
+          <t>INVB00C0D46</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>INVD205BD72</t>
+          <t>INV41DDABF7</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>INVDA4A728A</t>
+          <t>INV6659E5AF</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>INV2E481B91</t>
+          <t>INV4B2D7CEA</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>INV0A4BFD98</t>
+          <t>INV037B054E</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>INV7A056993</t>
+          <t>INV0CC2931A</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>INV51DB04AF</t>
+          <t>INVB86DB448</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>INV87C92A0A</t>
+          <t>INV2F35C717</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>INVEA27140D</t>
+          <t>INV99C9279D</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>INVF2F4F2BF</t>
+          <t>INV7F3184D4</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>INV36576537</t>
+          <t>INVE835F3C5</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>INVBE05A91A</t>
+          <t>INV5AB64BEF</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>INV0CFB3141</t>
+          <t>INV0C3FFDB9</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
